--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Documents/IdeaJProjects/October_study/進捗/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039A837B-0F37-5E47-80E8-AAD7713E2E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C24290-7EBF-C840-BA47-3F2D799E800A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
@@ -281,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -337,14 +337,6 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -398,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,9 +440,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,7 +760,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -803,7 +792,7 @@
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="12" t="s">
         <v>33</v>
       </c>
     </row>

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Documents/IdeaJProjects/October_study/進捗/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C24290-7EBF-C840-BA47-3F2D799E800A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDD691C-B328-1A4B-89BD-AEE55702DBBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
@@ -390,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -441,6 +441,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -760,7 +763,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -865,7 +868,9 @@
       <c r="F5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="17">
+        <v>1</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Documents/IdeaJProjects/October_study/進捗/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDD691C-B328-1A4B-89BD-AEE55702DBBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36885D79-5A44-A141-8E98-5CF423DFB1E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,18 +136,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>API作成(crud)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ZxncrbwrQ&amp;list=PLmOn9nNkQxJFCeKeTP8MoTrGkmYMPkBD6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【尚硅谷】Bootstrap全套教程 理论+实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【尚硅谷】Bootstrap全套教程 理论+实战　11-17・練習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李子晗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=awdmh8ePovU&amp;list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC&amp;index=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>【尚硅谷】NodeJS全套教程　11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>-20</t>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 1-15</t>
     </r>
     <r>
       <rPr>
@@ -162,22 +187,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>API作成(crud)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>【尚硅谷】React教程　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1-10</t>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 16-30</t>
     </r>
     <r>
       <rPr>
@@ -193,7 +204,7 @@
   </si>
   <si>
     <r>
-      <t>【尚硅谷】React教程　21-30</t>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 31-39</t>
     </r>
     <r>
       <rPr>
@@ -208,8 +219,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>React系列课程从零基础到项目开发实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZXg4W7qm-uw&amp;list=PL9nxfq1tlKKnza3MPogWqaYIPtdW_G2lF</t>
+  </si>
+  <si>
     <r>
-      <t>【尚硅谷】React教程　31-40</t>
+      <t>React系列课程从零基础到项目开发实战 1-21</t>
     </r>
     <r>
       <rPr>
@@ -225,17 +243,7 @@
   </si>
   <si>
     <r>
-      <t>【尚硅谷】React教程　4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1-45</t>
+      <t>React系列课程从零基础到项目开发实战 22-47</t>
     </r>
     <r>
       <rPr>
@@ -250,27 +258,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>復習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ZxncrbwrQ&amp;list=PLmOn9nNkQxJFCeKeTP8MoTrGkmYMPkBD6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　11-17・練習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李子晗</t>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 48-63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 64-83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・練習</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,7 +406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,11 +455,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -762,28 +781,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78B51EF-28B7-2044-BA42-48873DCE2A6B}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="21">
       <c r="A2" s="11"/>
@@ -796,7 +815,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -845,7 +864,9 @@
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="21">
@@ -868,7 +889,7 @@
       <c r="F5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
@@ -891,7 +912,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -914,7 +935,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -937,7 +958,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -989,8 +1010,8 @@
       <c r="E11" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>24</v>
+      <c r="F11" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1013,7 +1034,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1036,7 +1057,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1059,7 +1080,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1082,7 +1103,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1113,7 +1134,6 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
@@ -1135,7 +1155,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1158,7 +1178,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1181,7 +1201,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1408,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F25A19-37BE-46A6-8FAA-737378A38182}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1450,12 +1470,12 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1469,6 +1489,26 @@
         <v>15</v>
       </c>
       <c r="F11" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1477,6 +1517,8 @@
     <hyperlink ref="A5" r:id="rId2" xr:uid="{8393EAEB-55EA-4F92-AEEB-FC7DCA5256BD}"/>
     <hyperlink ref="A11" r:id="rId3" xr:uid="{6ED68722-64BD-4BB8-B17C-F8170786C995}"/>
     <hyperlink ref="A8" r:id="rId4" xr:uid="{71B37C53-73CD-0043-84A7-47CD6F1EAC96}"/>
+    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC" xr:uid="{69F86A0E-1CB2-224E-92D3-B03B2933A650}"/>
+    <hyperlink ref="A14" r:id="rId6" xr:uid="{8A484B4A-AE02-2E46-976B-B3815F909FA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Documents/IdeaJProjects/October_study/進捗/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Li Zihan\Documents\GitHub\October_study\進捗\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36885D79-5A44-A141-8E98-5CF423DFB1E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700E5291-CD76-4927-93A9-D36C86B75396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>復習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=w8ZxncrbwrQ&amp;list=PLmOn9nNkQxJFCeKeTP8MoTrGkmYMPkBD6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,54 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 1-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 16-30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 31-39</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>React系列课程从零基础到项目开发实战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,65 +175,287 @@
   </si>
   <si>
     <r>
-      <t>React系列课程从零基础到项目开发实战 1-21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>React系列课程从零基础到项目开发实战 22-47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>React系列课程从零基础到项目开发实战 48-63</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>React系列课程从零基础到项目开发实战 64-83</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・練習</t>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 1-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 6-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 16-23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 24-32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 33-39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 1-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 16-26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 27-43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 44-55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 56-67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 68-83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,7 +467,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -349,8 +519,15 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="4"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -458,11 +635,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -781,30 +958,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78B51EF-28B7-2044-BA42-48873DCE2A6B}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" ht="20.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="21">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -815,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -844,7 +1021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>44109</v>
       </c>
@@ -869,7 +1046,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="21">
+    <row r="5" spans="1:8" ht="19.5">
       <c r="A5" s="4">
         <v>44110</v>
       </c>
@@ -894,7 +1071,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>44111</v>
       </c>
@@ -912,12 +1089,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>44112</v>
       </c>
@@ -935,12 +1114,12 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>44113</v>
       </c>
@@ -958,12 +1137,12 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="9">
         <v>44114</v>
       </c>
@@ -971,14 +1150,22 @@
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="9">
         <v>44115</v>
       </c>
@@ -986,14 +1173,22 @@
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="C10" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>44116</v>
       </c>
@@ -1010,13 +1205,13 @@
       <c r="E11" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4">
         <v>44117</v>
       </c>
@@ -1033,13 +1228,13 @@
       <c r="E12" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>36</v>
+      <c r="F12" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <v>44118</v>
       </c>
@@ -1062,7 +1257,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <v>44119</v>
       </c>
@@ -1085,7 +1280,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4">
         <v>44120</v>
       </c>
@@ -1108,7 +1303,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4">
         <v>44121</v>
       </c>
@@ -1116,14 +1311,22 @@
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
+      <c r="C16" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="20" customHeight="1">
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4">
         <v>44122</v>
       </c>
@@ -1131,13 +1334,22 @@
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="C17" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="20" customHeight="1">
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4">
         <v>44123</v>
       </c>
@@ -1155,12 +1367,12 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="20" customHeight="1">
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4">
         <v>44124</v>
       </c>
@@ -1178,12 +1390,12 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="20" customHeight="1">
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="4">
         <v>44125</v>
       </c>
@@ -1201,12 +1413,12 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="20" customHeight="1">
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4">
         <v>44126</v>
       </c>
@@ -1229,7 +1441,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="20" customHeight="1">
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4">
         <v>44127</v>
       </c>
@@ -1252,7 +1464,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="20" customHeight="1">
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="4">
         <v>44128</v>
       </c>
@@ -1267,7 +1479,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="20" customHeight="1">
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="4">
         <v>44129</v>
       </c>
@@ -1282,7 +1494,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="20" customHeight="1">
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="4">
         <v>44130</v>
       </c>
@@ -1305,7 +1517,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="20" customHeight="1">
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="4">
         <v>44131</v>
       </c>
@@ -1328,7 +1540,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="20" customHeight="1">
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="4">
         <v>44132</v>
       </c>
@@ -1351,7 +1563,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="20" customHeight="1">
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="4">
         <v>44133</v>
       </c>
@@ -1374,7 +1586,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="20" customHeight="1">
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="4">
         <v>44134</v>
       </c>
@@ -1397,7 +1609,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="20" customHeight="1">
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="4">
         <v>44135</v>
       </c>
@@ -1434,7 +1646,7 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1470,12 +1682,12 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1492,22 +1704,22 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Li Zihan\Documents\GitHub\October_study\進捗\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700E5291-CD76-4927-93A9-D36C86B75396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
     <sheet name="学習資料" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,6 +450,22 @@
         <charset val="134"/>
       </rPr>
       <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【尚硅谷】NodeJS全套教程　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>11-20・練習</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,7 +473,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -471,14 +481,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -487,7 +497,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -502,7 +512,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -511,7 +521,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -643,8 +653,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -702,7 +712,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -754,7 +764,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -948,28 +958,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78B51EF-28B7-2044-BA42-48873DCE2A6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.36328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25">
+    <row r="1" spans="1:8" ht="26.4">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -981,7 +991,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25">
+    <row r="2" spans="1:8" ht="26.4">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1046,7 +1056,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>44110</v>
       </c>
@@ -1205,8 +1215,8 @@
       <c r="E11" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
+      <c r="F11" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1639,14 +1649,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F25A19-37BE-46A6-8FAA-737378A38182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="19.8"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1725,12 +1735,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7A21ABCB-7A5B-4768-A6E8-7DE69A52C209}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{8393EAEB-55EA-4F92-AEEB-FC7DCA5256BD}"/>
-    <hyperlink ref="A11" r:id="rId3" xr:uid="{6ED68722-64BD-4BB8-B17C-F8170786C995}"/>
-    <hyperlink ref="A8" r:id="rId4" xr:uid="{71B37C53-73CD-0043-84A7-47CD6F1EAC96}"/>
-    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC" xr:uid="{69F86A0E-1CB2-224E-92D3-B03B2933A650}"/>
-    <hyperlink ref="A14" r:id="rId6" xr:uid="{8A484B4A-AE02-2E46-976B-B3815F909FA9}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A11" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC"/>
+    <hyperlink ref="A14" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +467,10 @@
       </rPr>
       <t>11-20・練習</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【尚硅谷】NodeJS全套教程　11-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,7 +962,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1126,8 +1130,12 @@
       <c r="F7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Li Zihan\Documents\GitHub\October_study\進捗\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA639B7-5733-4E88-AE63-3D4C4EE14FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
     <sheet name="学習資料" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -21,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,30 +461,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>【尚硅谷】NodeJS全套教程　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>11-20・練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【尚硅谷】NodeJS全套教程　11-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【尚硅谷】NodeJS全套教程　16-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -485,14 +480,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -501,7 +496,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -516,7 +511,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -525,7 +520,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -962,28 +957,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.4">
+    <row r="1" spans="1:8" ht="20.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -995,7 +990,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="26.4">
+    <row r="2" spans="1:8" ht="20.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1060,7 +1055,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="19.5">
       <c r="A5" s="4">
         <v>44110</v>
       </c>
@@ -1131,10 +1126,10 @@
         <v>33</v>
       </c>
       <c r="G7" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1157,7 +1152,9 @@
       <c r="F8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1181,7 +1178,9 @@
         <v>35</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="9">
@@ -1223,8 +1222,8 @@
       <c r="E11" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>43</v>
+      <c r="F11" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1657,14 +1656,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1743,12 +1742,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A11" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC"/>
-    <hyperlink ref="A14" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A14" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Li Zihan\Documents\GitHub\October_study\進捗\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA639B7-5733-4E88-AE63-3D4C4EE14FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
     <sheet name="学習資料" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,389 +99,981 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>プログラム作成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>単体試験・結合試験</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>発表会を行う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【尚硅谷】NodeJS全套教程　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1-10・練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ZxncrbwrQ&amp;list=PLmOn9nNkQxJFCeKeTP8MoTrGkmYMPkBD6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【尚硅谷】Bootstrap全套教程 理论+实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李子晗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=awdmh8ePovU&amp;list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC&amp;index=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React系列课程从零基础到项目开发实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZXg4W7qm-uw&amp;list=PL9nxfq1tlKKnza3MPogWqaYIPtdW_G2lF</t>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 1-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 1-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 16-26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 27-43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 44-55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 56-67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 68-83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【尚硅谷】NodeJS全套教程　11-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【尚硅谷】NodeJS全套教程　16-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 33-39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 6-10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 11-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 16-18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 19-23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 24-32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>練習（login画面作成）(ビデオ会議予定)</t>
+    <rPh sb="8" eb="12">
+      <t>がめんさくせい</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>かいぎ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>よてい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復習</t>
+  </si>
+  <si>
+    <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
+  </si>
+  <si>
+    <t>【尚硅谷】Bootstrap全套教程 理论+实战　11-17・練習</t>
+  </si>
+  <si>
     <t>詳細設計作成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>プログラム作成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>単体試験・結合試験</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>発表会を行う</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【尚硅谷】NodeJS全套教程　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1-10・練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API作成(crud)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ZxncrbwrQ&amp;list=PLmOn9nNkQxJFCeKeTP8MoTrGkmYMPkBD6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　11-17・練習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李子晗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=awdmh8ePovU&amp;list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC&amp;index=20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>React系列课程从零基础到项目开发实战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZXg4W7qm-uw&amp;list=PL9nxfq1tlKKnza3MPogWqaYIPtdW_G2lF</t>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 1-5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 6-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 16-23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 24-32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 33-39</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>React系列课程从零基础到项目开发实战 1-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>React系列课程从零基础到项目开发实战 16-26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>React系列课程从零基础到项目开发实战 27-43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>React系列课程从零基础到项目开发实战 44-55</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>React系列课程从零基础到项目开发实战 56-67</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>React系列课程从零基础到项目开发实战 68-83</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【尚硅谷】NodeJS全套教程　11-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【尚硅谷】NodeJS全套教程　16-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -496,7 +1082,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -511,7 +1097,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -520,7 +1106,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -538,6 +1124,21 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -592,7 +1193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,9 +1244,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -957,40 +1555,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.36328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" ht="26.4">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="26.4">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1001,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1055,7 +1653,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>44110</v>
       </c>
@@ -1073,7 +1671,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="16">
         <v>1</v>
@@ -1098,7 +1696,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G6" s="16">
         <v>1</v>
@@ -1123,13 +1721,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1150,7 +1748,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G8" s="16">
         <v>1</v>
@@ -1175,11 +1773,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
       <c r="H9" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1200,9 +1800,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1223,7 +1825,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1245,8 +1847,8 @@
       <c r="E12" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>22</v>
+      <c r="F12" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1269,7 +1871,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1292,7 +1894,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1315,7 +1917,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1338,7 +1940,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1361,7 +1963,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1384,7 +1986,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1407,7 +2009,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1430,7 +2032,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1453,7 +2055,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1476,7 +2078,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1489,10 +2091,18 @@
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
+      <c r="C23" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
@@ -1504,10 +2114,18 @@
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
+      <c r="C24" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
@@ -1529,7 +2147,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1552,7 +2170,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1575,7 +2193,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1598,7 +2216,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1621,7 +2239,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1656,14 +2274,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="19.8"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1699,12 +2317,12 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1721,33 +2339,33 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A14" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A11" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC"/>
+    <hyperlink ref="A14" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Li Zihan\Documents\GitHub\October_study\進捗\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED730314-910C-4F2F-9D8F-3D1B05855410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
     <sheet name="学習資料" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -350,7 +356,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -361,7 +367,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -372,7 +378,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -383,7 +389,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -394,7 +400,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -405,7 +411,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -416,7 +422,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -427,7 +433,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -464,7 +470,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -475,7 +481,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -486,7 +492,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -497,7 +503,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -508,7 +514,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -519,7 +525,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -530,7 +536,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -541,7 +547,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -578,7 +584,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -589,7 +595,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -600,7 +606,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -611,7 +617,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -622,7 +628,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -633,7 +639,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -644,7 +650,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -655,7 +661,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -692,7 +698,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -703,7 +709,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -714,7 +720,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -725,7 +731,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -736,7 +742,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -747,7 +753,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -758,7 +764,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -769,7 +775,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -806,7 +812,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -817,7 +823,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -828,7 +834,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -839,7 +845,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -850,7 +856,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -861,7 +867,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -872,7 +878,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -883,7 +889,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -920,7 +926,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -931,7 +937,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -942,7 +948,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -953,7 +959,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -964,7 +970,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -975,7 +981,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -986,7 +992,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -997,7 +1003,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1058,7 +1064,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -1066,14 +1072,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1082,7 +1088,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1097,7 +1103,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1106,7 +1112,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1128,7 +1134,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1555,28 +1561,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.4">
+    <row r="1" spans="1:8" ht="20.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1594,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" ht="26.4">
+    <row r="2" spans="1:8" ht="20.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1653,7 +1659,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="19.5">
       <c r="A5" s="4">
         <v>44110</v>
       </c>
@@ -1827,7 +1833,9 @@
       <c r="F11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="16">
+        <v>0.9</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2274,14 +2282,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2360,12 +2368,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A11" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC"/>
-    <hyperlink ref="A14" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A14" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -1555,7 +1555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1566,7 +1566,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8"/>
@@ -1827,7 +1827,9 @@
       <c r="F11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Li Zihan\Documents\GitHub\October_study\進捗\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED730314-910C-4F2F-9D8F-3D1B05855410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
     <sheet name="学習資料" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -356,9 +350,123 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 33-39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>础</t>
@@ -367,7 +475,121 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 6-10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -378,9 +600,123 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 11-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>门</t>
@@ -389,7 +725,121 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 16-18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -400,9 +850,123 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 19-23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>实战</t>
@@ -411,7 +975,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -422,7 +986,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -433,577 +997,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程 33-39</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程 6-10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程 11-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程 16-18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程 19-23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1064,7 +1058,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -1072,14 +1066,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1088,7 +1082,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1103,7 +1097,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1112,7 +1106,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1134,7 +1128,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1561,28 +1555,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.36328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25">
+    <row r="1" spans="1:8" ht="26.4">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1588,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25">
+    <row r="2" spans="1:8" ht="26.4">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1659,7 +1653,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>44110</v>
       </c>
@@ -1833,9 +1827,7 @@
       <c r="F11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="16">
-        <v>0.9</v>
-      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2282,14 +2274,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="19.8"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2368,12 +2360,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A14" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A11" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC"/>
+    <hyperlink ref="A14" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Li Zihan\Documents\GitHub\October_study\進捗\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00976EFC-E12D-41BC-BBC4-1A165F32CB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
     <sheet name="学習資料" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -350,7 +356,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -361,7 +367,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -372,7 +378,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -383,7 +389,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -394,7 +400,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -405,7 +411,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -416,7 +422,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -427,7 +433,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -464,7 +470,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -475,7 +481,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -486,7 +492,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -497,7 +503,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -508,7 +514,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -519,7 +525,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -530,7 +536,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -541,7 +547,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -578,7 +584,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -589,7 +595,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -600,7 +606,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -611,7 +617,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -622,7 +628,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -633,7 +639,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -644,7 +650,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -655,7 +661,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -692,7 +698,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -703,7 +709,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -714,7 +720,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -725,7 +731,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -736,7 +742,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -747,7 +753,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -758,7 +764,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -769,7 +775,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -806,7 +812,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -817,7 +823,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -828,7 +834,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -839,7 +845,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -850,7 +856,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -861,7 +867,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -872,7 +878,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -883,7 +889,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -920,7 +926,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -931,7 +937,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -942,7 +948,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -953,7 +959,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -964,7 +970,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -975,7 +981,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -986,7 +992,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -997,7 +1003,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1058,7 +1064,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -1066,14 +1072,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1082,7 +1088,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1097,7 +1103,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1106,7 +1112,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1128,7 +1134,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1555,28 +1561,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.4">
+    <row r="1" spans="1:8" ht="20.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1594,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" ht="26.4">
+    <row r="2" spans="1:8" ht="20.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1653,7 +1659,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="19.5">
       <c r="A5" s="4">
         <v>44110</v>
       </c>
@@ -1828,7 +1834,7 @@
         <v>42</v>
       </c>
       <c r="G11" s="16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -1852,7 +1858,9 @@
       <c r="F12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1875,7 +1883,9 @@
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="16">
+        <v>0.5</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2276,14 +2286,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2362,12 +2372,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A11" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC"/>
-    <hyperlink ref="A14" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A14" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Li Zihan\Documents\GitHub\October_study\進捗\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00976EFC-E12D-41BC-BBC4-1A165F32CB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
     <sheet name="学習資料" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -356,9 +350,123 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 33-39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>础</t>
@@ -367,7 +475,121 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 6-10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -378,9 +600,123 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 11-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>门</t>
@@ -389,7 +725,121 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 16-18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -400,9 +850,123 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 19-23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>实战</t>
@@ -411,7 +975,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -422,7 +986,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -433,577 +997,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程 33-39</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程 6-10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程 11-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程 16-18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程 19-23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1064,7 +1058,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -1072,14 +1066,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1088,7 +1082,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1103,7 +1097,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1112,7 +1106,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1134,7 +1128,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1561,28 +1555,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.36328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25">
+    <row r="1" spans="1:8" ht="26.4">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1588,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25">
+    <row r="2" spans="1:8" ht="26.4">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1659,7 +1653,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>44110</v>
       </c>
@@ -1859,7 +1853,7 @@
         <v>37</v>
       </c>
       <c r="G12" s="16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -1884,7 +1878,7 @@
         <v>43</v>
       </c>
       <c r="G13" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -2286,14 +2280,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="19.8"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2372,12 +2366,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A14" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A11" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC"/>
+    <hyperlink ref="A14" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Li Zihan\Documents\GitHub\October_study\進捗\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8A9B68-2BC2-40BF-A5D3-B2B8A12A6862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
     <sheet name="学習資料" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -350,7 +356,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -361,7 +367,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -372,7 +378,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -383,7 +389,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -394,7 +400,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -405,7 +411,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -416,7 +422,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -427,7 +433,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -464,7 +470,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -475,7 +481,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -486,7 +492,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -497,7 +503,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -508,7 +514,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -519,7 +525,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -530,7 +536,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -541,7 +547,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -578,7 +584,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -589,7 +595,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -600,7 +606,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -611,7 +617,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -622,7 +628,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -633,7 +639,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -644,7 +650,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -655,7 +661,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -692,7 +698,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -703,7 +709,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -714,7 +720,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -725,7 +731,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -736,7 +742,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -747,7 +753,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -758,7 +764,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -769,7 +775,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -806,7 +812,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -817,7 +823,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -828,7 +834,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -839,7 +845,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -850,7 +856,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -861,7 +867,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -872,7 +878,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -883,7 +889,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -920,7 +926,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -931,7 +937,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -942,7 +948,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -953,7 +959,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -964,7 +970,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -975,7 +981,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -986,7 +992,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -997,7 +1003,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1058,7 +1064,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -1066,14 +1072,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1082,7 +1088,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1097,7 +1103,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1106,7 +1112,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1128,7 +1134,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1555,28 +1561,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.4">
+    <row r="1" spans="1:8" ht="20.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1594,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" ht="26.4">
+    <row r="2" spans="1:8" ht="20.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1653,7 +1659,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="19.5">
       <c r="A5" s="4">
         <v>44110</v>
       </c>
@@ -1902,7 +1908,9 @@
       <c r="F14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1925,7 +1933,9 @@
       <c r="F15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2280,14 +2290,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2366,12 +2376,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A11" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC"/>
-    <hyperlink ref="A14" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A14" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Li Zihan\Documents\GitHub\October_study\進捗\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8A9B68-2BC2-40BF-A5D3-B2B8A12A6862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D3BE15-17A4-442E-86F5-B3F46D408B98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1958,7 +1958,9 @@
       <c r="F16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Li Zihan\Documents\GitHub\October_study\進捗\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D3BE15-17A4-442E-86F5-B3F46D408B98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9A3DFC-1808-4B54-8E7F-8F8FD3275DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="24315" windowHeight="10095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
@@ -1046,19 +1046,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
+  </si>
+  <si>
+    <t>【尚硅谷】Bootstrap全套教程 理论+实战　11-17・練習</t>
+  </si>
+  <si>
+    <t>詳細設計作成</t>
+  </si>
+  <si>
+    <t>プログラム作成</t>
+  </si>
+  <si>
     <t>復習</t>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　11-17・練習</t>
-  </si>
-  <si>
-    <t>詳細設計作成</t>
-  </si>
-  <si>
-    <t>プログラム作成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1571,7 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1981,9 +1982,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2004,7 +2007,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2027,7 +2030,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2050,7 +2053,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2073,7 +2076,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2096,7 +2099,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2119,7 +2122,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2142,7 +2145,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Li Zihan\Documents\GitHub\October_study\進捗\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9A3DFC-1808-4B54-8E7F-8F8FD3275DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="24315" windowHeight="10095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1176" yWindow="1176" windowWidth="23256" windowHeight="10092"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
     <sheet name="学習資料" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,9 +350,123 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 33-39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>础</t>
@@ -367,7 +475,121 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 6-10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -378,9 +600,123 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 11-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>门</t>
@@ -389,7 +725,121 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 16-18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -400,9 +850,123 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 19-23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>实战</t>
@@ -411,7 +975,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -422,7 +986,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -433,577 +997,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程 33-39</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程 6-10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程 11-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程 16-18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程 19-23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1046,12 +1040,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　11-17・練習</t>
-  </si>
-  <si>
     <t>詳細設計作成</t>
   </si>
   <si>
@@ -1065,7 +1053,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -1073,14 +1061,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1089,7 +1077,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1104,7 +1092,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1113,7 +1101,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1135,7 +1123,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1562,28 +1550,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.36328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25">
+    <row r="1" spans="1:8" ht="26.4">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1595,7 +1583,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25">
+    <row r="2" spans="1:8" ht="26.4">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1660,7 +1648,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>44110</v>
       </c>
@@ -1982,7 +1970,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17" s="16">
         <v>1</v>
@@ -2006,9 +1994,7 @@
       <c r="E18" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
@@ -2029,9 +2015,7 @@
       <c r="E19" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
@@ -2053,7 +2037,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2076,7 +2060,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2099,7 +2083,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2122,7 +2106,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2145,7 +2129,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2295,14 +2279,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="19.8"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2381,12 +2365,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A14" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A11" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId5" display="https://www.youtube.com/playlist?list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC"/>
+    <hyperlink ref="A14" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -10,7 +10,7 @@
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
     <sheet name="学習資料" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1047,6 +1047,13 @@
   </si>
   <si>
     <t>復習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中止</t>
+    <rPh sb="0" eb="2">
+      <t>ちゅうし</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1550,7 +1557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1561,7 +1568,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F23" sqref="F23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8"/>
@@ -1994,7 +2001,9 @@
       <c r="E18" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
@@ -2015,7 +2024,9 @@
       <c r="E19" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -1557,7 +1557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1568,7 +1568,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F24"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8"/>
@@ -2050,7 +2050,9 @@
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -1557,7 +1557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1568,7 +1568,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8"/>
@@ -2075,7 +2075,9 @@
       <c r="F21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">

--- a/進捗/10月学習計画書_李子晗.xlsx
+++ b/進捗/10月学習計画書_李子晗.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,18 +96,6 @@
   </si>
   <si>
     <t>Node.js 入门教程（文档）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>プログラム作成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>単体試験・結合試験</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>発表会を行う</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1040,12 +1028,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>詳細設計作成</t>
-  </si>
-  <si>
-    <t>プログラム作成</t>
-  </si>
-  <si>
     <t>復習</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1054,6 +1036,10 @@
     <rPh sb="0" eb="2">
       <t>ちゅうし</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復習</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1557,7 +1543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1568,7 +1554,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8"/>
@@ -1601,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1673,7 +1659,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="16">
         <v>1</v>
@@ -1698,7 +1684,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" s="16">
         <v>1</v>
@@ -1723,13 +1709,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1750,7 +1736,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G8" s="16">
         <v>1</v>
@@ -1775,13 +1761,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G9" s="16">
         <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1802,7 +1788,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" s="16">
         <v>1</v>
@@ -1827,7 +1813,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G11" s="16">
         <v>1</v>
@@ -1852,7 +1838,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G12" s="16">
         <v>1</v>
@@ -1877,7 +1863,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" s="16">
         <v>1</v>
@@ -1902,7 +1888,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="16">
         <v>1</v>
@@ -1927,7 +1913,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G15" s="16">
         <v>1</v>
@@ -1952,7 +1938,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G16" s="16">
         <v>1</v>
@@ -1977,7 +1963,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G17" s="16">
         <v>1</v>
@@ -2002,7 +1988,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2025,7 +2011,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2048,7 +2034,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G20" s="16">
         <v>1</v>
@@ -2073,7 +2059,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G21" s="16">
         <v>1</v>
@@ -2098,9 +2084,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1</v>
+      </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2120,9 +2108,7 @@
       <c r="E23" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
@@ -2143,9 +2129,7 @@
       <c r="E24" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
@@ -2167,7 +2151,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2190,7 +2174,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2213,7 +2197,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2236,7 +2220,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2259,7 +2243,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -2337,12 +2321,12 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2359,22 +2343,22 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
